--- a/control.xlsx
+++ b/control.xlsx
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +64,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -99,6 +107,8 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +426,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,27 +443,27 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>8.5302000000000005E-8</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3.9500000000000003E-8</v>
+      <c r="A2" s="6">
+        <v>3.2888000000000003E-8</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3.5600000000000001E-8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>4.6345999999999997E-8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2.36E-8</v>
+      <c r="A3" s="5">
+        <v>3.69E-8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.59E-8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>8.3662999999999999E-8</v>
+        <v>4.3100000000000002E-8</v>
       </c>
       <c r="B4" s="2">
-        <v>3.5899999999999997E-8</v>
+        <v>2.4699999999999999E-8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -518,5 +528,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>